--- a/data/trans_orig/P14C30-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14C30-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{078B5726-1E08-4D02-A618-C60C2E8A4CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{76C9978F-B95E-4A6C-88CB-D20FF49CD39E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{49539616-8933-4990-A99F-546F6AC0D7BF}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{70FE1734-608B-4020-8019-607F6B5A219F}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="103">
   <si>
     <t>Población según el tiempo de diagnóstico del cirrosis en 2015 (Tasa respuesta: 0,5%)</t>
   </si>
@@ -131,7 +131,7 @@
     <t>35,75%</t>
   </si>
   <si>
-    <t>80,88%</t>
+    <t>81,12%</t>
   </si>
   <si>
     <t>82,56%</t>
@@ -143,16 +143,16 @@
     <t>57,4%</t>
   </si>
   <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
   </si>
   <si>
     <t>34,84%</t>
   </si>
   <si>
-    <t>80,91%</t>
+    <t>80,85%</t>
   </si>
   <si>
     <t>17,44%</t>
@@ -164,31 +164,31 @@
     <t>26,79%</t>
   </si>
   <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>59,48%</t>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
   </si>
   <si>
     <t>29,4%</t>
   </si>
   <si>
-    <t>86,41%</t>
+    <t>72,77%</t>
   </si>
   <si>
     <t>15,81%</t>
   </si>
   <si>
+    <t>58,02%</t>
+  </si>
+  <si>
     <t>mas de 50</t>
   </si>
   <si>
     <t>54,65%</t>
   </si>
   <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
+    <t>14,61%</t>
   </si>
   <si>
     <t>42,53%</t>
@@ -197,28 +197,25 @@
     <t>51,5%</t>
   </si>
   <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
   </si>
   <si>
     <t>45,35%</t>
   </si>
   <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
+    <t>85,39%</t>
   </si>
   <si>
     <t>33,54%</t>
   </si>
   <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -230,7 +227,7 @@
     <t>14,96%</t>
   </si>
   <si>
-    <t>59,14%</t>
+    <t>59,78%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -239,7 +236,7 @@
     <t>65,6%</t>
   </si>
   <si>
-    <t>22,04%</t>
+    <t>21,2%</t>
   </si>
   <si>
     <t>63,75%</t>
@@ -248,103 +245,103 @@
     <t>77,77%</t>
   </si>
   <si>
-    <t>40,6%</t>
+    <t>35,83%</t>
   </si>
   <si>
     <t>22,57%</t>
   </si>
   <si>
-    <t>70,73%</t>
+    <t>70,63%</t>
   </si>
   <si>
     <t>14,58%</t>
   </si>
   <si>
-    <t>50,84%</t>
+    <t>51,31%</t>
   </si>
   <si>
     <t>11,83%</t>
   </si>
   <si>
-    <t>54,4%</t>
+    <t>41,19%</t>
   </si>
   <si>
     <t>7,65%</t>
   </si>
   <si>
-    <t>33,39%</t>
+    <t>33,64%</t>
   </si>
   <si>
     <t>54,64%</t>
   </si>
   <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
   </si>
   <si>
     <t>76,09%</t>
   </si>
   <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
   </si>
   <si>
     <t>62,51%</t>
   </si>
   <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
   </si>
   <si>
     <t>34,14%</t>
   </si>
   <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>56,25%</t>
   </si>
   <si>
     <t>14,09%</t>
   </si>
   <si>
-    <t>41,36%</t>
+    <t>41,65%</t>
   </si>
   <si>
     <t>26,78%</t>
   </si>
   <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
   </si>
   <si>
     <t>11,22%</t>
   </si>
   <si>
-    <t>32,04%</t>
+    <t>38,97%</t>
   </si>
   <si>
     <t>9,82%</t>
   </si>
   <si>
-    <t>44,45%</t>
+    <t>40,98%</t>
   </si>
   <si>
     <t>10,71%</t>
   </si>
   <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -759,7 +756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFFFE02-4F0C-4BFD-8965-299E22D6B81C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC6B3399-6388-4285-9729-C198CFF85BC3}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1425,7 +1422,7 @@
         <v>16</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1481,7 +1478,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1493,13 +1490,13 @@
         <v>3642</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -1547,10 +1544,10 @@
         <v>55</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -1574,13 +1571,13 @@
         <v>3021</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1601,7 +1598,7 @@
         <v>17</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -1610,7 +1607,7 @@
         <v>1347</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>16</v>
@@ -1625,13 +1622,13 @@
         <v>1347</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1687,7 +1684,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1699,10 +1696,10 @@
         <v>5124</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>11</v>
@@ -1717,7 +1714,7 @@
         <v>11</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>13</v>
@@ -1729,10 +1726,10 @@
         <v>9399</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>11</v>
@@ -1750,13 +1747,13 @@
         <v>1763</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -1780,13 +1777,13 @@
         <v>1763</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1801,13 +1798,13 @@
         <v>924</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -1831,13 +1828,13 @@
         <v>924</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1905,13 +1902,13 @@
         <v>12943</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H24" s="7">
         <v>9</v>
@@ -1920,13 +1917,13 @@
         <v>10440</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M24" s="7">
         <v>21</v>
@@ -1935,13 +1932,13 @@
         <v>23382</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -1956,13 +1953,13 @@
         <v>8085</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -1971,13 +1968,13 @@
         <v>1933</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M25" s="7">
         <v>9</v>
@@ -1986,13 +1983,13 @@
         <v>10018</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2007,13 +2004,13 @@
         <v>2657</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -2022,13 +2019,13 @@
         <v>1347</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -2037,13 +2034,13 @@
         <v>4004</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2099,7 +2096,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C30-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14C30-Habitat-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76C9978F-B95E-4A6C-88CB-D20FF49CD39E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B57FC049-3700-4C5D-8D12-14033A256024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{70FE1734-608B-4020-8019-607F6B5A219F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2A6ABFE1-5B1A-4936-8266-375383E286C8}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="103">
   <si>
-    <t>Población según el tiempo de diagnóstico del cirrosis en 2015 (Tasa respuesta: 0,5%)</t>
+    <t>Población según el tiempo de diagnóstico del cirrosis en 2016 (Tasa respuesta: 0,5%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Mas de 4 años</t>
@@ -98,7 +98,7 @@
     <t>Ultimos 12 meses</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>42,45%</t>
@@ -125,7 +125,7 @@
     <t>36,25%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>35,75%</t>
@@ -143,10 +143,10 @@
     <t>57,4%</t>
   </si>
   <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
   </si>
   <si>
     <t>34,84%</t>
@@ -164,10 +164,10 @@
     <t>26,79%</t>
   </si>
   <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>64,07%</t>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
   </si>
   <si>
     <t>29,4%</t>
@@ -179,16 +179,16 @@
     <t>15,81%</t>
   </si>
   <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>57,68%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>54,65%</t>
   </si>
   <si>
-    <t>14,61%</t>
+    <t>14,38%</t>
   </si>
   <si>
     <t>42,53%</t>
@@ -197,25 +197,25 @@
     <t>51,5%</t>
   </si>
   <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
   </si>
   <si>
     <t>45,35%</t>
   </si>
   <si>
-    <t>85,39%</t>
+    <t>85,62%</t>
   </si>
   <si>
     <t>33,54%</t>
   </si>
   <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -227,7 +227,7 @@
     <t>14,96%</t>
   </si>
   <si>
-    <t>59,78%</t>
+    <t>58,46%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -236,7 +236,7 @@
     <t>65,6%</t>
   </si>
   <si>
-    <t>21,2%</t>
+    <t>21,72%</t>
   </si>
   <si>
     <t>63,75%</t>
@@ -245,103 +245,103 @@
     <t>77,77%</t>
   </si>
   <si>
-    <t>35,83%</t>
+    <t>41,45%</t>
   </si>
   <si>
     <t>22,57%</t>
   </si>
   <si>
-    <t>70,63%</t>
+    <t>70,49%</t>
   </si>
   <si>
     <t>14,58%</t>
   </si>
   <si>
-    <t>51,31%</t>
+    <t>50,79%</t>
   </si>
   <si>
     <t>11,83%</t>
   </si>
   <si>
-    <t>41,19%</t>
+    <t>55,13%</t>
   </si>
   <si>
     <t>7,65%</t>
   </si>
   <si>
-    <t>33,64%</t>
+    <t>35,31%</t>
   </si>
   <si>
     <t>54,64%</t>
   </si>
   <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
   </si>
   <si>
     <t>76,09%</t>
   </si>
   <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
+    <t>47,66%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
   </si>
   <si>
     <t>62,51%</t>
   </si>
   <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
   </si>
   <si>
     <t>34,14%</t>
   </si>
   <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>56,25%</t>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
   </si>
   <si>
     <t>14,09%</t>
   </si>
   <si>
-    <t>41,65%</t>
+    <t>39,12%</t>
   </si>
   <si>
     <t>26,78%</t>
   </si>
   <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
   </si>
   <si>
     <t>11,22%</t>
   </si>
   <si>
-    <t>38,97%</t>
+    <t>37,13%</t>
   </si>
   <si>
     <t>9,82%</t>
   </si>
   <si>
-    <t>40,98%</t>
+    <t>40,02%</t>
   </si>
   <si>
     <t>10,71%</t>
   </si>
   <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -756,7 +756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC6B3399-6388-4285-9729-C198CFF85BC3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13D1173-EEE1-4603-A4A7-243C5CFA973B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
